--- a/biology/Biologie cellulaire et moléculaire/Antistreptolysine_O/Antistreptolysine_O.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Antistreptolysine_O/Antistreptolysine_O.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'antistreptolysine O (ASLO)[1] est l'anticorps dirigé contre la streptolysine O, une exotoxine hémolytique streptococcique immunogène et labile à l'oxygène, produite par la plupart des souches de bactéries Streptococcus du groupe A et de nombreuses souches des groupes C et G. Le « O » dans le nom signifie oxygène-labile ; l'autre toxine apparentée étant la streptolysine-S stable à l'oxygène. La fonction principale de la streptolysine O est de provoquer une hémolyse, en particulier la bêta-hémolyse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'antistreptolysine O (ASLO) est l'anticorps dirigé contre la streptolysine O, une exotoxine hémolytique streptococcique immunogène et labile à l'oxygène, produite par la plupart des souches de bactéries Streptococcus du groupe A et de nombreuses souches des groupes C et G. Le « O » dans le nom signifie oxygène-labile ; l'autre toxine apparentée étant la streptolysine-S stable à l'oxygène. La fonction principale de la streptolysine O est de provoquer une hémolyse, en particulier la bêta-hémolyse.
 Des taux élévés  d'ASLO dans le sang pourraient s'accompagner de dommages au niveau du cœur et aux articulations (rhumatisme articulaire aigu ou autres complications post-streptococciques). Dans la plupart des cas, la pénicilline est utilisée pour traiter les patients présentant des niveaux élevés d'ASLO.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Signification clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque le corps est infecté par des streptocoques, il produit des anticorps contre les différents antigènes produits par les streptocoques. L'ASLO est l'un de ces anticorps. Un niveau élevé ou en hausse peut indiquer une infection passée ou présente. Il a été historiquement l'un des premiers marqueurs bactériens utilisés pour le diagnostic et le suivi du rhumatisme articulaire aigu ou de la scarlatine. Son importance à cet égard n'a pas diminué.[réf. nécessaire]
 Étant donné que ces anticorps sont produits sous  forme d'une réaction d'anticorps retardée contre les bactéries susmentionnées, il n'y a pas de valeur normale. La présence de ces anticorps indique une exposition à ces bactéries. Cependant, comme de nombreuses personnes sont exposées à ces bactéries et restent pourtant asymptomatiques, la simple présence d'ASLO n'a pas de signification pathologique.
@@ -548,7 +562,9 @@
           <t>Dosage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cela se fait par des méthodes sérologiques comme l'agglutination au latex ou l'agglutination sur lame. ELISA peut être effectué pour détecter la valeur exacte du titre. Pour détecter la valeur du titre, par une méthode non ELISA, il faut effectuer l'agglutination ci-dessus en utilisant une technique de dilution en série.[réf. nécessaire]
 </t>
@@ -579,7 +595,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces anticorps produits contre la bactérie réagissent de manière croisée avec des antigènes humains (principalement du collagène ) et attaquent ainsi la matrice cellulaire de divers organes, principalement le cœur, les articulations, la peau, le cerveau, etc.[réf. nécessaire]
 </t>
@@ -610,10 +628,12 @@
           <t>Titre d'antistreptolysine O - ASLO</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dosage d' antistreptolysine O  est une mesure des taux plasmatiques d'anticorps antistreptolysine O utilisés dans les tests pour le diagnostic d'une infection streptococcique ou pour indiquer une exposition passée aux streptocoques. L'ASLO aide à diriger le traitement antimicrobien et est utilisé pour faciliter le diagnostic de la scarlatine, du rhumatisme articulaire aigu et de la glomérulonéphrite post-infectieuse .[réf. nécessaire]
-Un test positif est généralement &gt; 200 unités/mL,  mais les plages normales varient d'un laboratoire à l'autre et selon l'âge[2].
+Un test positif est généralement &gt; 200 unités/mL,  mais les plages normales varient d'un laboratoire à l'autre et selon l'âge.
 Le taux de faux négatifs est de 20 à 30 %.  Si un faux négatif est suspecté, alors un dosage du titre de l' anti-DNase B doit être recherché. Les faux positifs peuvent résulter d'une maladie du foie et de la tuberculose.
 </t>
         </is>
